--- a/origin_data/label/type5_19.xlsx
+++ b/origin_data/label/type5_19.xlsx
@@ -2,12 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18960" windowHeight="11580"/>
+    <workbookView windowWidth="18960" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,51 +18,129 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -68,115 +148,37 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -190,19 +192,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,163 +354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,15 +383,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,17 +397,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,16 +422,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,8 +439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,156 +468,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -693,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -703,44 +709,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -773,9 +779,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -814,131 +820,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -953,10 +988,10 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1">
@@ -1001,37 +1036,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1048,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1057,19 +1092,19 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1083,31 +1118,31 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1124,16 +1159,16 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1150,13 +1185,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1168,26 +1203,61 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>